--- a/data/questionnaires/version1/questionnaire.xlsx
+++ b/data/questionnaires/version1/questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>CONSENT_FORM</t>
   </si>
   <si>
-    <t>RISK_ASSESMENT</t>
+    <t>RISK_ASSESSMENT</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
